--- a/ExcelConfigs/ColdJoke.xlsx
+++ b/ExcelConfigs/ColdJoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16680" windowHeight="8172"/>
+    <workbookView windowWidth="17111" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>唯一标识</t>
   </si>
   <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>选项1</t>
+  </si>
+  <si>
+    <t>选项2</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
+    <t>content</t>
+  </si>
+  <si>
+    <t>option_yes</t>
+  </si>
+  <si>
+    <t>option_no</t>
   </si>
   <si>
     <t>string</t>
@@ -841,10 +853,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -908,13 +926,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1175,380 +1186,390 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.2222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.8888888888889" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1111111111111" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="15.6" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" ht="15.6" spans="1:3">
-      <c r="A4" s="2">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
         <v>1001</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:3">
-      <c r="A5" s="2">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
         <v>1002</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" ht="15.6" spans="1:3">
-      <c r="A6" s="2">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
         <v>1003</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="15.6" spans="1:3">
-      <c r="A7" s="2">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
         <v>1004</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="15.6" spans="1:3">
-      <c r="A8" s="2">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
         <v>1005</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="15.6" spans="1:3">
-      <c r="A9" s="2">
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
         <v>1006</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" ht="15.6" spans="1:3">
-      <c r="A10" s="2">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
         <v>1007</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" ht="15.6" spans="1:3">
-      <c r="A11" s="2">
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
         <v>1008</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" ht="15.6" spans="1:3">
-      <c r="A12" s="2">
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
         <v>1009</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" ht="15.6" spans="1:3">
-      <c r="A13" s="2">
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
         <v>1010</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" ht="15.6" spans="1:3">
-      <c r="A14" s="2">
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3">
         <v>1011</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" ht="15.6" spans="1:3">
-      <c r="A15" s="2">
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3">
         <v>1012</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" ht="15.6" spans="1:3">
-      <c r="A16" s="2">
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>1013</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="15.6" spans="1:3">
-      <c r="A17" s="2">
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3">
         <v>1014</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" ht="15.6" spans="1:3">
-      <c r="A18" s="2">
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3">
         <v>1015</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" ht="15.6" spans="1:3">
-      <c r="A19" s="2">
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3">
         <v>1016</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" ht="15.6" spans="1:3">
-      <c r="A20" s="2">
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3">
         <v>1017</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" ht="15.6" spans="1:3">
-      <c r="A21" s="2">
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>1018</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" ht="15.6" spans="1:3">
-      <c r="A22" s="2">
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3">
         <v>1019</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" ht="15.6" spans="1:3">
-      <c r="A23" s="2">
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3">
         <v>1020</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" ht="15.6" spans="1:3">
-      <c r="A24" s="2">
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>1021</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" ht="15.6" spans="1:3">
-      <c r="A25" s="2">
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3">
         <v>1022</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" ht="15.6" spans="1:3">
-      <c r="A26" s="2">
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3">
         <v>1023</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" ht="15.6" spans="1:3">
-      <c r="A27" s="2">
+      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>1024</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" ht="15.6" spans="1:3">
-      <c r="A28" s="2">
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3">
         <v>1025</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" ht="15.6" spans="1:3">
-      <c r="A29" s="2">
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3">
         <v>1026</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" ht="15.6" spans="1:3">
-      <c r="A30" s="2">
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>1027</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" ht="15.6" spans="1:3">
-      <c r="A31" s="2">
+      <c r="B30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3">
         <v>1028</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" ht="15.6" spans="1:3">
-      <c r="A32" s="2">
+      <c r="B31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3">
         <v>1029</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" ht="15.6" spans="1:3">
-      <c r="A33" s="2">
+      <c r="B32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3">
         <v>1030</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>64</v>
+      <c r="B33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
